--- a/trunk/CRMFlexExcel/src/com/fellow/main/Tryggmat.xlsx
+++ b/trunk/CRMFlexExcel/src/com/fellow/main/Tryggmat.xlsx
@@ -91,7 +91,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -99,48 +99,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,53 +413,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="7" customWidth="1"/>
-    <col min="2" max="6" width="6.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="42.5703125" style="5" customWidth="1"/>
+    <col min="2" max="6" width="6.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="BC82" sheet="1" objects="1" scenarios="1"/>
